--- a/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_plants/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15335F80-A5A2-5A47-B6E1-E0D42FBF291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C24B4C-3848-0746-9EE9-9EA7C0CDEFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="75">
   <si>
     <t>DOI</t>
   </si>
@@ -173,13 +173,85 @@
   </si>
   <si>
     <t>P. fluorescens log10(CFU per gram rhizosphere soil)</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Prediction metric</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measurement value</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Colony count</t>
+  </si>
+  <si>
+    <t>Equilibrium constant</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>Fraction</t>
+  </si>
+  <si>
+    <t>Selectivity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +265,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,7 +282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -236,17 +316,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,18 +645,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="186" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="239" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,8 +673,23 @@
       <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -594,8 +705,23 @@
       <c r="E2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -611,8 +737,23 @@
       <c r="E3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -628,8 +769,23 @@
       <c r="E4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -645,8 +801,23 @@
       <c r="E5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -662,8 +833,23 @@
       <c r="E6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -679,8 +865,23 @@
       <c r="E7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -696,8 +897,23 @@
       <c r="E8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -713,8 +929,23 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -730,8 +961,23 @@
       <c r="E10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -747,8 +993,23 @@
       <c r="E11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -764,8 +1025,23 @@
       <c r="E12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -781,8 +1057,23 @@
       <c r="E13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -798,8 +1089,23 @@
       <c r="E14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -815,8 +1121,23 @@
       <c r="E15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -832,8 +1153,23 @@
       <c r="E16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -849,8 +1185,23 @@
       <c r="E17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -866,8 +1217,23 @@
       <c r="E18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -883,8 +1249,23 @@
       <c r="E19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -900,8 +1281,23 @@
       <c r="E20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -917,8 +1313,23 @@
       <c r="E21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -934,8 +1345,23 @@
       <c r="E22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -951,8 +1377,23 @@
       <c r="E23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -968,8 +1409,23 @@
       <c r="E24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -985,8 +1441,23 @@
       <c r="E25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1002,8 +1473,23 @@
       <c r="E26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1019,8 +1505,23 @@
       <c r="E27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1036,8 +1537,23 @@
       <c r="E28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1053,8 +1569,23 @@
       <c r="E29" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1070,8 +1601,23 @@
       <c r="E30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1087,8 +1633,23 @@
       <c r="E31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1104,8 +1665,23 @@
       <c r="E32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1121,8 +1697,23 @@
       <c r="E33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1137,6 +1728,21 @@
       </c>
       <c r="E34" t="s">
         <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_plants/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C24B4C-3848-0746-9EE9-9EA7C0CDEFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2D70A7-B7F0-D940-94FE-F8CE1D765199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,9 +208,6 @@
     <t>Absolute</t>
   </si>
   <si>
-    <t>Measurement value</t>
-  </si>
-  <si>
     <t>Mass</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>Selectivity</t>
+  </si>
+  <si>
+    <t>Measured value</t>
   </si>
 </sst>
 </file>
@@ -647,14 +647,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="239" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="239" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -773,13 +774,13 @@
         <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -805,13 +806,13 @@
         <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -837,13 +838,13 @@
         <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
         <v>71</v>
-      </c>
-      <c r="I6" t="s">
-        <v>72</v>
       </c>
       <c r="J6" t="s">
         <v>58</v>
@@ -869,13 +870,13 @@
         <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
         <v>71</v>
-      </c>
-      <c r="I7" t="s">
-        <v>72</v>
       </c>
       <c r="J7" t="s">
         <v>58</v>
@@ -901,13 +902,13 @@
         <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s">
         <v>58</v>
@@ -933,13 +934,13 @@
         <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s">
         <v>58</v>
@@ -965,13 +966,13 @@
         <v>61</v>
       </c>
       <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
         <v>62</v>
       </c>
-      <c r="H10" t="s">
-        <v>63</v>
-      </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
         <v>58</v>
@@ -997,13 +998,13 @@
         <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
         <v>58</v>
@@ -1029,13 +1030,13 @@
         <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
         <v>58</v>
@@ -1064,7 +1065,7 @@
         <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
         <v>59</v>
@@ -1093,13 +1094,13 @@
         <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
         <v>58</v>
@@ -1125,13 +1126,13 @@
         <v>56</v>
       </c>
       <c r="G15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" t="s">
         <v>66</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>67</v>
-      </c>
-      <c r="I15" t="s">
-        <v>68</v>
       </c>
       <c r="J15" t="s">
         <v>58</v>
@@ -1189,13 +1190,13 @@
         <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
         <v>58</v>
@@ -1221,13 +1222,13 @@
         <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J18" t="s">
         <v>58</v>
@@ -1285,13 +1286,13 @@
         <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" t="s">
         <v>71</v>
-      </c>
-      <c r="I20" t="s">
-        <v>72</v>
       </c>
       <c r="J20" t="s">
         <v>58</v>
@@ -1413,13 +1414,13 @@
         <v>61</v>
       </c>
       <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s">
         <v>62</v>
       </c>
-      <c r="H24" t="s">
-        <v>63</v>
-      </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J24" t="s">
         <v>58</v>
@@ -1573,13 +1574,13 @@
         <v>61</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J29">
         <v>10</v>
@@ -1605,13 +1606,13 @@
         <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J30">
         <v>10</v>
@@ -1637,13 +1638,13 @@
         <v>61</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J31">
         <v>10</v>
@@ -1669,13 +1670,13 @@
         <v>61</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J32">
         <v>10</v>
@@ -1701,13 +1702,13 @@
         <v>61</v>
       </c>
       <c r="G33" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J33">
         <v>10</v>
@@ -1733,13 +1734,13 @@
         <v>61</v>
       </c>
       <c r="G34" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J34">
         <v>10</v>

--- a/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_plants/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2D70A7-B7F0-D940-94FE-F8CE1D765199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04531470-AAA6-D040-9B57-69A9C8A8297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="239" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:G34"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="239" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1446,13 +1446,13 @@
         <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s">
         <v>60</v>
-      </c>
-      <c r="I25" t="s">
-        <v>59</v>
       </c>
       <c r="J25" t="s">
         <v>58</v>
@@ -1478,13 +1478,13 @@
         <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" t="s">
         <v>60</v>
-      </c>
-      <c r="I26" t="s">
-        <v>59</v>
       </c>
       <c r="J26" t="s">
         <v>58</v>
@@ -1510,13 +1510,13 @@
         <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" t="s">
         <v>60</v>
-      </c>
-      <c r="I27" t="s">
-        <v>59</v>
       </c>
       <c r="J27" t="s">
         <v>58</v>
@@ -1542,13 +1542,13 @@
         <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" t="s">
         <v>60</v>
-      </c>
-      <c r="I28" t="s">
-        <v>59</v>
       </c>
       <c r="J28" t="s">
         <v>58</v>

--- a/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_plants/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04531470-AAA6-D040-9B57-69A9C8A8297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2EC00B-7FA7-1B4F-9BBA-C43428A1CBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="109">
   <si>
     <t>DOI</t>
   </si>
@@ -245,6 +245,108 @@
   </si>
   <si>
     <t>Measured value</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-022-01327-3_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-022-01327-3_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01355-7_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01355-7_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01374-4_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01374-4_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01378-0_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01378-0_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01384-2_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01432-x_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01436-7_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01436-7_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01449-2_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01459-0_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01492-z_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01492-z_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01492-z_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01492-z_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01492-z_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01494-x_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01499-6_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01514-w_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01514-w_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01527-5_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01527-5_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01527-5_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01527-5_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01539-1_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01539-1_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01539-1_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01539-1_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01539-1_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01539-1_zero_fig6</t>
   </si>
 </sst>
 </file>
@@ -645,72 +747,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="239" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="239" workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
       </c>
       <c r="H2" t="s">
         <v>57</v>
@@ -719,30 +824,33 @@
         <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
       </c>
       <c r="H3" t="s">
         <v>57</v>
@@ -751,158 +859,173 @@
         <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>74</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>68</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>61</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>74</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>68</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>64</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>56</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>65</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>70</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>71</v>
       </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>65</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>70</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>71</v>
       </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
       </c>
       <c r="H8" t="s">
         <v>72</v>
@@ -911,30 +1034,33 @@
         <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>72</v>
       </c>
       <c r="H9" t="s">
         <v>72</v>
@@ -943,222 +1069,243 @@
         <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>61</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>74</v>
-      </c>
-      <c r="H10" t="s">
-        <v>62</v>
       </c>
       <c r="I10" t="s">
         <v>62</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>61</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>74</v>
-      </c>
-      <c r="H11" t="s">
-        <v>63</v>
       </c>
       <c r="I11" t="s">
         <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>61</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>74</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>69</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>67</v>
       </c>
-      <c r="J12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="K12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>56</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>59</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>73</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>59</v>
       </c>
-      <c r="J13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>38</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>61</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>74</v>
-      </c>
-      <c r="H14" t="s">
-        <v>63</v>
       </c>
       <c r="I14" t="s">
         <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>56</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>65</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>66</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>67</v>
       </c>
-      <c r="J15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="K15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>40</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
       </c>
       <c r="H16" t="s">
         <v>59</v>
@@ -1167,94 +1314,103 @@
         <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>41</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>61</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>74</v>
-      </c>
-      <c r="H17" t="s">
-        <v>64</v>
       </c>
       <c r="I17" t="s">
         <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>61</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>74</v>
-      </c>
-      <c r="H18" t="s">
-        <v>63</v>
       </c>
       <c r="I18" t="s">
         <v>63</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>42</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>59</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -1263,62 +1419,68 @@
         <v>59</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>43</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>56</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>65</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>70</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>71</v>
       </c>
-      <c r="J20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="K20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>44</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>56</v>
-      </c>
-      <c r="G21" t="s">
-        <v>57</v>
       </c>
       <c r="H21" t="s">
         <v>57</v>
@@ -1327,30 +1489,33 @@
         <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>45</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>56</v>
-      </c>
-      <c r="G22" t="s">
-        <v>57</v>
       </c>
       <c r="H22" t="s">
         <v>57</v>
@@ -1359,30 +1524,33 @@
         <v>57</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>46</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>56</v>
-      </c>
-      <c r="G23" t="s">
-        <v>57</v>
       </c>
       <c r="H23" t="s">
         <v>57</v>
@@ -1391,358 +1559,394 @@
         <v>57</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>61</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>74</v>
-      </c>
-      <c r="H24" t="s">
-        <v>62</v>
       </c>
       <c r="I24" t="s">
         <v>62</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>48</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>56</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>65</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>48</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>60</v>
       </c>
-      <c r="J25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="K25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>48</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>56</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>65</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>48</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>60</v>
       </c>
-      <c r="J26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="K26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>18</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>48</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>56</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>65</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>48</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>60</v>
       </c>
-      <c r="J27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="K27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>48</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>56</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>65</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>48</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>60</v>
       </c>
-      <c r="J28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="K28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>49</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>61</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>74</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>68</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>64</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
       <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>50</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>61</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>74</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>68</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>64</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>18</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>49</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>61</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>74</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>68</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>64</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>19</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
       <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>50</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>61</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>74</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>68</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>64</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>20</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
       <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>28</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>61</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>74</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>68</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>64</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
         <v>25</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>26</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
       <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
         <v>28</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>61</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>74</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>68</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>64</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>10</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_plants/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2EC00B-7FA7-1B4F-9BBA-C43428A1CBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C233B1-AAAE-9045-AD08-CDB100B3DA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="107">
   <si>
     <t>DOI</t>
   </si>
@@ -236,12 +236,6 @@
   </si>
   <si>
     <t>Relative luminescence</t>
-  </si>
-  <si>
-    <t>Fraction</t>
-  </si>
-  <si>
-    <t>Selectivity</t>
   </si>
   <si>
     <t>Measured value</t>
@@ -749,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="239" workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="239" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -758,11 +752,13 @@
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -797,7 +793,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -832,7 +828,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -867,7 +863,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -888,7 +884,7 @@
         <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
         <v>68</v>
@@ -902,7 +898,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -923,7 +919,7 @@
         <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
         <v>68</v>
@@ -937,7 +933,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -972,7 +968,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1007,7 +1003,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1028,13 +1024,13 @@
         <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s">
         <v>58</v>
@@ -1042,7 +1038,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1063,13 +1059,13 @@
         <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K9" t="s">
         <v>58</v>
@@ -1077,7 +1073,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1098,7 +1094,7 @@
         <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
         <v>62</v>
@@ -1112,7 +1108,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1133,7 +1129,7 @@
         <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
         <v>63</v>
@@ -1147,7 +1143,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1168,7 +1164,7 @@
         <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
         <v>69</v>
@@ -1182,7 +1178,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1206,7 +1202,7 @@
         <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J13" t="s">
         <v>59</v>
@@ -1217,7 +1213,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1238,7 +1234,7 @@
         <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
         <v>63</v>
@@ -1252,7 +1248,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1287,7 +1283,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1322,7 +1318,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1343,7 +1339,7 @@
         <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s">
         <v>64</v>
@@ -1357,7 +1353,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1378,7 +1374,7 @@
         <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s">
         <v>63</v>
@@ -1392,7 +1388,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1427,7 +1423,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -1462,7 +1458,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1497,7 +1493,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -1532,7 +1528,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -1567,7 +1563,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -1588,7 +1584,7 @@
         <v>61</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s">
         <v>62</v>
@@ -1602,7 +1598,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -1637,7 +1633,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -1672,7 +1668,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
@@ -1707,7 +1703,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
@@ -1742,7 +1738,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -1763,7 +1759,7 @@
         <v>61</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s">
         <v>68</v>
@@ -1777,7 +1773,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -1798,7 +1794,7 @@
         <v>61</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s">
         <v>68</v>
@@ -1812,7 +1808,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -1833,7 +1829,7 @@
         <v>61</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I31" t="s">
         <v>68</v>
@@ -1847,7 +1843,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -1868,7 +1864,7 @@
         <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I32" t="s">
         <v>68</v>
@@ -1882,7 +1878,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -1903,7 +1899,7 @@
         <v>61</v>
       </c>
       <c r="H33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s">
         <v>68</v>
@@ -1917,7 +1913,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -1938,7 +1934,7 @@
         <v>61</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s">
         <v>68</v>

--- a/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_plants/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C233B1-AAAE-9045-AD08-CDB100B3DA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB27382D-6AB7-094A-9AC5-48AC6C743F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="239" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="239" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -957,10 +957,10 @@
         <v>65</v>
       </c>
       <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
         <v>70</v>
-      </c>
-      <c r="J6" t="s">
-        <v>71</v>
       </c>
       <c r="K6" t="s">
         <v>58</v>
@@ -992,10 +992,10 @@
         <v>65</v>
       </c>
       <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
         <v>70</v>
-      </c>
-      <c r="J7" t="s">
-        <v>71</v>
       </c>
       <c r="K7" t="s">
         <v>58</v>
@@ -1447,10 +1447,10 @@
         <v>65</v>
       </c>
       <c r="I20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" t="s">
         <v>70</v>
-      </c>
-      <c r="J20" t="s">
-        <v>71</v>
       </c>
       <c r="K20" t="s">
         <v>58</v>

--- a/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_plants/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB27382D-6AB7-094A-9AC5-48AC6C743F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2745A1-A76E-4441-81DD-5C3986536D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="108">
   <si>
     <t>DOI</t>
   </si>
@@ -229,9 +229,6 @@
     <t>Colony count</t>
   </si>
   <si>
-    <t>Equilibrium constant</t>
-  </si>
-  <si>
     <t>Fluorescence</t>
   </si>
   <si>
@@ -341,6 +338,12 @@
   </si>
   <si>
     <t>10.1038:s41477-023-01539-1_zero_fig6</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Characteristic concentration</t>
   </si>
 </sst>
 </file>
@@ -743,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="239" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:J20"/>
+    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="239" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -758,7 +761,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -793,7 +796,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -828,7 +831,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -863,7 +866,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -884,7 +887,7 @@
         <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
         <v>68</v>
@@ -898,7 +901,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -919,7 +922,7 @@
         <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
         <v>68</v>
@@ -933,7 +936,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -957,10 +960,10 @@
         <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
         <v>58</v>
@@ -968,7 +971,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -992,10 +995,10 @@
         <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
         <v>58</v>
@@ -1003,7 +1006,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1038,7 +1041,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1073,7 +1076,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1094,7 +1097,7 @@
         <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
         <v>62</v>
@@ -1108,7 +1111,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1129,7 +1132,7 @@
         <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
         <v>63</v>
@@ -1143,7 +1146,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1164,13 +1167,13 @@
         <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s">
         <v>58</v>
@@ -1178,7 +1181,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1213,7 +1216,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1234,7 +1237,7 @@
         <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s">
         <v>63</v>
@@ -1248,7 +1251,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1283,7 +1286,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1318,7 +1321,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1339,7 +1342,7 @@
         <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s">
         <v>64</v>
@@ -1353,7 +1356,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1374,7 +1377,7 @@
         <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s">
         <v>63</v>
@@ -1388,7 +1391,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1423,7 +1426,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -1447,10 +1450,10 @@
         <v>65</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K20" t="s">
         <v>58</v>
@@ -1458,7 +1461,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -1528,7 +1531,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -1563,7 +1566,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -1584,7 +1587,7 @@
         <v>61</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s">
         <v>62</v>
@@ -1598,7 +1601,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -1622,7 +1625,7 @@
         <v>65</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J25" t="s">
         <v>60</v>
@@ -1633,7 +1636,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -1657,7 +1660,7 @@
         <v>65</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
         <v>60</v>
@@ -1668,7 +1671,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
@@ -1692,7 +1695,7 @@
         <v>65</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
         <v>60</v>
@@ -1703,7 +1706,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
@@ -1727,7 +1730,7 @@
         <v>65</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J28" t="s">
         <v>60</v>
@@ -1738,7 +1741,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -1759,7 +1762,7 @@
         <v>61</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s">
         <v>68</v>
@@ -1773,7 +1776,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -1794,7 +1797,7 @@
         <v>61</v>
       </c>
       <c r="H30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I30" t="s">
         <v>68</v>
@@ -1808,7 +1811,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -1829,7 +1832,7 @@
         <v>61</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I31" t="s">
         <v>68</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -1864,7 +1867,7 @@
         <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I32" t="s">
         <v>68</v>
@@ -1878,7 +1881,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -1899,7 +1902,7 @@
         <v>61</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I33" t="s">
         <v>68</v>
@@ -1913,7 +1916,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -1934,7 +1937,7 @@
         <v>61</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I34" t="s">
         <v>68</v>

--- a/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_plants/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2745A1-A76E-4441-81DD-5C3986536D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C33463-39F3-9946-81B4-98D9FA5A8219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,9 +226,6 @@
     <t>Constant</t>
   </si>
   <si>
-    <t>Colony count</t>
-  </si>
-  <si>
     <t>Fluorescence</t>
   </si>
   <si>
@@ -344,6 +341,9 @@
   </si>
   <si>
     <t>Characteristic concentration</t>
+  </si>
+  <si>
+    <t>Titer</t>
   </si>
 </sst>
 </file>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="239" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:I28"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="239" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -761,7 +761,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -887,13 +887,13 @@
         <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -922,13 +922,13 @@
         <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -960,10 +960,10 @@
         <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
         <v>58</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -995,10 +995,10 @@
         <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
         <v>58</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1097,7 +1097,7 @@
         <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
         <v>62</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1132,7 +1132,7 @@
         <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
         <v>63</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1167,13 +1167,13 @@
         <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s">
         <v>58</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1237,7 +1237,7 @@
         <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s">
         <v>63</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1342,7 +1342,7 @@
         <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s">
         <v>64</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1377,7 +1377,7 @@
         <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s">
         <v>63</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -1450,10 +1450,10 @@
         <v>65</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
         <v>58</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -1587,7 +1587,7 @@
         <v>61</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I24" t="s">
         <v>62</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -1762,13 +1762,13 @@
         <v>61</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="J29" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="K29">
         <v>10</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -1797,13 +1797,13 @@
         <v>61</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="J30" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="K30">
         <v>10</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -1832,13 +1832,13 @@
         <v>61</v>
       </c>
       <c r="H31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I31" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="J31" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="K31">
         <v>10</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -1867,13 +1867,13 @@
         <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I32" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="J32" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="K32">
         <v>10</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -1902,13 +1902,13 @@
         <v>61</v>
       </c>
       <c r="H33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I33" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="J33" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="K33">
         <v>10</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -1937,13 +1937,13 @@
         <v>61</v>
       </c>
       <c r="H34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I34" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="J34" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="K34">
         <v>10</v>

--- a/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_plants/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_plants/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C33463-39F3-9946-81B4-98D9FA5A8219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0F60FD-10D8-3248-92D6-7E45CC326D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>P. fluorescens log10(CFU per well)</t>
   </si>
   <si>
@@ -181,12 +178,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -344,6 +335,15 @@
   </si>
   <si>
     <t>Titer</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
+  </si>
+  <si>
+    <t>Measurand</t>
   </si>
 </sst>
 </file>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="239" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="239" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -761,7 +761,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -776,27 +776,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -811,27 +811,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -846,27 +846,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -881,19 +881,19 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -916,19 +916,19 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -951,27 +951,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
         <v>65</v>
       </c>
-      <c r="I6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" t="s">
-        <v>68</v>
-      </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -986,27 +986,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
         <v>65</v>
       </c>
-      <c r="I7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" t="s">
-        <v>68</v>
-      </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1021,27 +1021,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1056,27 +1056,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1091,27 +1091,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1126,27 +1126,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1161,27 +1161,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1196,27 +1196,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
         <v>56</v>
       </c>
-      <c r="H13" t="s">
-        <v>59</v>
-      </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1231,27 +1231,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1266,27 +1266,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1301,27 +1301,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="s">
         <v>56</v>
       </c>
-      <c r="H16" t="s">
-        <v>59</v>
-      </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1336,27 +1336,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" t="s">
         <v>61</v>
       </c>
-      <c r="H17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" t="s">
-        <v>64</v>
-      </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1371,27 +1371,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1406,27 +1406,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
         <v>56</v>
       </c>
-      <c r="H19" t="s">
-        <v>59</v>
-      </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -1441,27 +1441,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" t="s">
         <v>65</v>
       </c>
-      <c r="I20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J20" t="s">
-        <v>68</v>
-      </c>
       <c r="K20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1476,27 +1476,27 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -1511,27 +1511,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -1546,27 +1546,27 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -1581,27 +1581,27 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -1616,27 +1616,27 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -1651,27 +1651,27 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
@@ -1686,27 +1686,27 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
@@ -1721,27 +1721,27 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -1756,19 +1756,19 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K29">
         <v>10</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -1791,19 +1791,19 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K30">
         <v>10</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -1826,19 +1826,19 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K31">
         <v>10</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -1861,19 +1861,19 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K32">
         <v>10</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -1896,19 +1896,19 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K33">
         <v>10</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -1931,19 +1931,19 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K34">
         <v>10</v>
